--- a/biology/Écologie/Niveau_trophique/Niveau_trophique.xlsx
+++ b/biology/Écologie/Niveau_trophique/Niveau_trophique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En écologie, le niveau trophique ou maillon trophique est le rang qu'occupe un être vivant dans un réseau trophique. Il se mesure en quelque sorte par la distance qui sépare cet être du niveau basique qui est celui de la production primaire autotrophe.
 Au-dessus de ce niveau de base, chaque maillon (ou étage) d'une chaîne alimentaire correspond à un niveau trophique.
@@ -513,7 +525,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un concept théorique de l'écologie qui permet de mieux cerner ou expliquer certaines relations entre espèces (relations prédateur-proie notamment), les cycles et flux d'énergie et de nutriments dans les écosystèmes, les réseaux trophiques ainsi que les phénomènes de bioconcentration dans la pyramide alimentaire, qui ont une grande importance en écotoxicologie.
 </t>
@@ -544,7 +558,9 @@
           <t>Producteurs, consommateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De manière simplifiée, on distingue trois niveaux fondamentaux (plus ou moins subdivisés selon les écosystèmes) : producteurs, consommateurs et décomposeurs, autrement dit :
 ceux qui fabriquent leur nourriture à partir de l'environnement (les plantes et les  micro-organismes autotrophes) et qui ne mangent pas d'autres espèces ;
@@ -585,12 +601,14 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la nature des espèces et les sources utilisées, le niveau trophique précis peut être parfois difficile à établir.
-Les plantes, le phytoplancton et les organismes similaires sont au niveau 1,0. La plupart des vers sont typiquement classés au niveau 2,1 ; un insecte commun 2,2 ; une méduse 3,0 ; un oiseau commun 3,6 ; un petit mammifère commun 4,1[2],[3].
-Le niveau trophique moyen d'un humain, contrairement à ce que l'on pourrait penser, est proche de 2,2, comme les porcs ou les anchois[3],[4].
-Cette moyenne peut être parfois très éloignée de la réalité, car les habitudes alimentaires des humains modernes sont très complexes et varient grandement. Par exemple, dans la cuisine inuite, la base alimentaire est constituée de phoque ou de morse, ce qui ferait qu'un inuit a plutôt un niveau proche de 5. Avant l'avènement de l'agriculture, le niveau trophique des humains était probablement plus élevé qu'aujourd'hui. Le développement de l'agriculture aurait considérablement réduit le niveau trophique des humains[5].
+Les plantes, le phytoplancton et les organismes similaires sont au niveau 1,0. La plupart des vers sont typiquement classés au niveau 2,1 ; un insecte commun 2,2 ; une méduse 3,0 ; un oiseau commun 3,6 ; un petit mammifère commun 4,1,.
+Le niveau trophique moyen d'un humain, contrairement à ce que l'on pourrait penser, est proche de 2,2, comme les porcs ou les anchois,.
+Cette moyenne peut être parfois très éloignée de la réalité, car les habitudes alimentaires des humains modernes sont très complexes et varient grandement. Par exemple, dans la cuisine inuite, la base alimentaire est constituée de phoque ou de morse, ce qui ferait qu'un inuit a plutôt un niveau proche de 5. Avant l'avènement de l'agriculture, le niveau trophique des humains était probablement plus élevé qu'aujourd'hui. Le développement de l'agriculture aurait considérablement réduit le niveau trophique des humains.
 </t>
         </is>
       </c>
